--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>12.6360025871</v>
+        <v>13.8001645026</v>
       </c>
       <c r="R2">
-        <v>113.7240232839</v>
+        <v>124.2014805234</v>
       </c>
       <c r="S2">
-        <v>0.000104828720031011</v>
+        <v>0.0001481503322240073</v>
       </c>
       <c r="T2">
-        <v>0.000104828720031011</v>
+        <v>0.0001481503322240073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>4.302962733466667</v>
+        <v>5.697104296139999</v>
       </c>
       <c r="R3">
-        <v>38.72666460119999</v>
+        <v>51.27393866526</v>
       </c>
       <c r="S3">
-        <v>3.569752954553437E-05</v>
+        <v>6.116071254287892E-05</v>
       </c>
       <c r="T3">
-        <v>3.569752954553436E-05</v>
+        <v>6.116071254287892E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>733.3448264150888</v>
+        <v>3786.64463733651</v>
       </c>
       <c r="R4">
-        <v>6600.103437735799</v>
+        <v>34079.80173602859</v>
       </c>
       <c r="S4">
-        <v>0.006083854364903297</v>
+        <v>0.04065115752279378</v>
       </c>
       <c r="T4">
-        <v>0.006083854364903296</v>
+        <v>0.04065115752279378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>13.46428651185556</v>
+        <v>23.861958180705</v>
       </c>
       <c r="R5">
-        <v>121.1785786067</v>
+        <v>214.757623626345</v>
       </c>
       <c r="S5">
-        <v>0.0001117001924809319</v>
+        <v>0.0002561677457772898</v>
       </c>
       <c r="T5">
-        <v>0.0001117001924809319</v>
+        <v>0.0002561677457772897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>1679.337417575111</v>
+        <v>2661.729182775405</v>
       </c>
       <c r="R6">
-        <v>15114.036758176</v>
+        <v>23955.56264497864</v>
       </c>
       <c r="S6">
-        <v>0.01393184203399128</v>
+        <v>0.02857473638406393</v>
       </c>
       <c r="T6">
-        <v>0.01393184203399128</v>
+        <v>0.02857473638406393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>68.74437841692301</v>
+        <v>56.70549702356</v>
       </c>
       <c r="R7">
-        <v>618.6994057523071</v>
+        <v>510.3494732120399</v>
       </c>
       <c r="S7">
-        <v>0.0005703057710775115</v>
+        <v>0.0006087563826782721</v>
       </c>
       <c r="T7">
-        <v>0.0005703057710775115</v>
+        <v>0.0006087563826782722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>23.409657953484</v>
@@ -948,10 +948,10 @@
         <v>210.686921581356</v>
       </c>
       <c r="S8">
-        <v>0.000194207342291365</v>
+        <v>0.0002513121204030298</v>
       </c>
       <c r="T8">
-        <v>0.000194207342291365</v>
+        <v>0.0002513121204030299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>3989.658431111606</v>
+        <v>15559.49323439661</v>
       </c>
       <c r="R9">
-        <v>35906.92588000446</v>
+        <v>140035.4391095694</v>
       </c>
       <c r="S9">
-        <v>0.03309834607990107</v>
+        <v>0.1670374357840991</v>
       </c>
       <c r="T9">
-        <v>0.03309834607990107</v>
+        <v>0.1670374357840991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>73.25053953611902</v>
+        <v>98.04986008227301</v>
       </c>
       <c r="R10">
-        <v>659.2548558250711</v>
+        <v>882.448740740457</v>
       </c>
       <c r="S10">
-        <v>0.0006076890415479583</v>
+        <v>0.00105260479633916</v>
       </c>
       <c r="T10">
-        <v>0.0006076890415479583</v>
+        <v>0.00105260479633916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>9136.196841344323</v>
+        <v>10937.16500429809</v>
       </c>
       <c r="R11">
-        <v>82225.77157209891</v>
+        <v>98434.48503868283</v>
       </c>
       <c r="S11">
-        <v>0.07579420898561987</v>
+        <v>0.1174148778204977</v>
       </c>
       <c r="T11">
-        <v>0.07579420898561987</v>
+        <v>0.1174148778204978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>243.902022776815</v>
+        <v>81.46995162444443</v>
       </c>
       <c r="R12">
-        <v>2195.118204991335</v>
+        <v>733.2295646199999</v>
       </c>
       <c r="S12">
-        <v>0.002023419723478857</v>
+        <v>0.000874612791547612</v>
       </c>
       <c r="T12">
-        <v>0.002023419723478857</v>
+        <v>0.0008746127915476122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>83.05643397835333</v>
+        <v>33.63313613533333</v>
       </c>
       <c r="R13">
-        <v>747.5079058051799</v>
+        <v>302.698225218</v>
       </c>
       <c r="S13">
-        <v>0.0006890390852863194</v>
+        <v>0.0003610652823193614</v>
       </c>
       <c r="T13">
-        <v>0.0006890390852863194</v>
+        <v>0.0003610652823193615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>14155.13215691754</v>
+        <v>22354.64333520411</v>
       </c>
       <c r="R14">
-        <v>127396.1894122579</v>
+        <v>201191.790016837</v>
       </c>
       <c r="S14">
-        <v>0.1174314721488214</v>
+        <v>0.2399861129362419</v>
       </c>
       <c r="T14">
-        <v>0.1174314721488214</v>
+        <v>0.2399861129362419</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>259.8896836916394</v>
+        <v>140.8702467481667</v>
       </c>
       <c r="R15">
-        <v>2339.007153224755</v>
+        <v>1267.8322207335</v>
       </c>
       <c r="S15">
-        <v>0.002156053918386497</v>
+        <v>0.001512298918776425</v>
       </c>
       <c r="T15">
-        <v>0.002156053918386497</v>
+        <v>0.001512298918776425</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>32414.82345765849</v>
+        <v>15713.64947984705</v>
       </c>
       <c r="R16">
-        <v>291733.4111189264</v>
+        <v>141422.8453186235</v>
       </c>
       <c r="S16">
-        <v>0.2689145107145298</v>
+        <v>0.1686923652578446</v>
       </c>
       <c r="T16">
-        <v>0.2689145107145298</v>
+        <v>0.1686923652578446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>17.55185286659299</v>
+        <v>8.052269730680001</v>
       </c>
       <c r="R17">
-        <v>157.966675799337</v>
+        <v>72.47042757612002</v>
       </c>
       <c r="S17">
-        <v>0.0001456107861243993</v>
+        <v>8.644436343732025E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001456107861243993</v>
+        <v>8.644436343732025E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>5.976966866510665</v>
+        <v>3.324208234452001</v>
       </c>
       <c r="R18">
-        <v>53.79270179859598</v>
+        <v>29.91787411006801</v>
       </c>
       <c r="S18">
-        <v>4.958512646426043E-05</v>
+        <v>3.568671621436536E-05</v>
       </c>
       <c r="T18">
-        <v>4.958512646426043E-05</v>
+        <v>3.568671621436536E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>1018.641805823568</v>
+        <v>2209.472502180819</v>
       </c>
       <c r="R19">
-        <v>9167.776252412112</v>
+        <v>19885.25251962736</v>
       </c>
       <c r="S19">
-        <v>0.008450688098432024</v>
+        <v>0.0237195785004031</v>
       </c>
       <c r="T19">
-        <v>0.008450688098432024</v>
+        <v>0.0237195785004031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>18.70236842551789</v>
+        <v>13.923234287319</v>
       </c>
       <c r="R20">
-        <v>168.321315829661</v>
+        <v>125.309108585871</v>
       </c>
       <c r="S20">
-        <v>0.0001551555034973592</v>
+        <v>0.0001494715360030943</v>
       </c>
       <c r="T20">
-        <v>0.0001551555034973592</v>
+        <v>0.0001494715360030943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>2332.658850254898</v>
+        <v>1553.094626204779</v>
       </c>
       <c r="R21">
-        <v>20993.92965229408</v>
+        <v>13977.85163584301</v>
       </c>
       <c r="S21">
-        <v>0.01935181952169502</v>
+        <v>0.01667309725215294</v>
       </c>
       <c r="T21">
-        <v>0.01935181952169502</v>
+        <v>0.01667309725215293</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>280.614070359642</v>
+        <v>37.99037918567111</v>
       </c>
       <c r="R22">
-        <v>2525.526633236778</v>
+        <v>341.91341267104</v>
       </c>
       <c r="S22">
-        <v>0.002327984156043488</v>
+        <v>0.0004078420439562731</v>
       </c>
       <c r="T22">
-        <v>0.002327984156043488</v>
+        <v>0.0004078420439562731</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>95.558059514536</v>
+        <v>15.68351974571733</v>
       </c>
       <c r="R23">
-        <v>860.022535630824</v>
+        <v>141.151677711456</v>
       </c>
       <c r="S23">
-        <v>0.0007927530085964444</v>
+        <v>0.0001683689104091508</v>
       </c>
       <c r="T23">
-        <v>0.0007927530085964444</v>
+        <v>0.0001683689104091508</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>16285.75772274766</v>
+        <v>10424.22831892323</v>
       </c>
       <c r="R24">
-        <v>146571.8195047289</v>
+        <v>93818.0548703091</v>
       </c>
       <c r="S24">
-        <v>0.1351072164668336</v>
+        <v>0.1119082956102749</v>
       </c>
       <c r="T24">
-        <v>0.1351072164668336</v>
+        <v>0.1119082956102749</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>299.0081884311593</v>
+        <v>65.68942270411468</v>
       </c>
       <c r="R25">
-        <v>2691.073695880434</v>
+        <v>591.204804337032</v>
       </c>
       <c r="S25">
-        <v>0.002480582403807775</v>
+        <v>0.0007052024485204009</v>
       </c>
       <c r="T25">
-        <v>0.002480582403807775</v>
+        <v>0.0007052024485204008</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>37293.89140313195</v>
+        <v>7327.456199826657</v>
       </c>
       <c r="R26">
-        <v>335645.0226281876</v>
+        <v>65947.10579843992</v>
       </c>
       <c r="S26">
-        <v>0.3093914292766128</v>
+        <v>0.07866319783047929</v>
       </c>
       <c r="T26">
-        <v>0.3093914292766128</v>
+        <v>0.07866319783047927</v>
       </c>
     </row>
   </sheetData>
